--- a/availability.xlsx
+++ b/availability.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
   <si>
     <t>Timestamp</t>
   </si>
@@ -49,46 +49,37 @@
     <t>Please send your schedule:</t>
   </si>
   <si>
-    <t>5/3/2025 20:27:24</t>
-  </si>
-  <si>
     <t>5/4/2025 0:16:43</t>
   </si>
   <si>
+    <t>5/6/2025 10:01:38</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
     <t>R</t>
   </si>
   <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>C</t>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
   <si>
     <t>Yes</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>3PM-5PM</t>
-  </si>
-  <si>
     <t>9AM-11AM, 11AM-1PM, 1PM-3PM, 3PM-5PM</t>
   </si>
   <si>
-    <t>1PM-3PM</t>
-  </si>
-  <si>
     <t>9AM-11AM</t>
   </si>
   <si>
-    <t>11AM-1PM</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1DoVK-zT97S1uHLggt2MF_jvUxSNFHNsh</t>
-  </si>
-  <si>
     <t>https://drive.google.com/open?id=1MY-KOj5Ah7G3_JJDh68d4-_zfLajPlhU</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1aZR1pUKATFGYjFNFv2SqTBI9RM4WKRsh</t>
   </si>
 </sst>
 </file>
@@ -508,10 +499,10 @@
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D2">
-        <v>123</v>
+        <v>321</v>
       </c>
       <c r="E2" t="s">
         <v>16</v>
@@ -520,19 +511,19 @@
         <v>18</v>
       </c>
       <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="H2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -543,10 +534,10 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3">
-        <v>321</v>
+        <v>123</v>
       </c>
       <c r="E3" t="s">
         <v>17</v>
@@ -567,7 +558,7 @@
         <v>19</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
